--- a/F_dataset/ChEMBL/ITK/ITK_preprocessing/ITK_valid.xlsx
+++ b/F_dataset/ChEMBL/ITK/ITK_preprocessing/ITK_valid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y120"/>
+  <dimension ref="A1:Y119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,7 +664,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138CF0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B290&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A7A0&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139F50&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913BA00&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B42E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A180&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B44A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139EE0&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B59A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A8F0&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B300&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138350&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291384A0&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B8B0&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A490&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291393F0&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A3B0&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A810&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B67A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291387B0&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A570&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A340&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B49E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B060&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B3E0&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913BED0&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B7140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291386D0&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913AD50&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B6F0&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A5E0&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A2D0&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A730&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913BA70&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B53F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913BD10&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139FC0&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913AB20&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B40B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A030&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B4C0&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B70D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B680&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B47B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913BC30&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B54D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138740&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138DD0&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4926,7 +4926,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B45F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B450&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A110&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A420&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A650&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138040&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138120&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138270&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138820&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139E70&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5842,19 +5842,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL208501</t>
+          <t>CHEMBL211998</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>440.59</v>
+        <v>438.58</v>
       </c>
       <c r="D49" t="n">
-        <v>4.46</v>
+        <v>4.34</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CN(C)C(=O)c1cccc(CSc2cnc(NC(=O)c3ccc(N(C)C)cc3)s2)c1</t>
+          <t>CC(=O)N1CCN(C(=O)c2cccc(Sc3cnc(Nc4ccccc4)s3)c2)CC1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5873,11 +5873,11 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>14800</v>
+        <v>34200</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>CHEMBL861556</t>
+          <t>CHEMBL864159</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>CHEMBL1147005</t>
+          <t>CHEMBL1138957</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61A0970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A33B370&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -5955,19 +5955,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL211998</t>
+          <t>CHEMBL2180200</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>438.58</v>
+        <v>410.5</v>
       </c>
       <c r="D50" t="n">
-        <v>4.34</v>
+        <v>2.16</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CC(=O)N1CCN(C(=O)c2cccc(Sc3cnc(Nc4ccccc4)s3)c2)CC1</t>
+          <t>C=CC(=O)N1CCC[C@@H](n2nc(-c3ccc([S+](C)[O-])cc3)c3c(N)ncnc32)C1</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5986,16 +5986,16 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>34200</v>
+        <v>21883</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>CHEMBL864159</t>
+          <t>CHEMBL2185029</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Inhibition of Itk</t>
+          <t>Covalent inhibition of ITK in presence of 1 mM ATP</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>CHEMBL1138957</t>
+          <t>CHEMBL2177048</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -6045,18 +6045,18 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>J Med Chem</t>
         </is>
       </c>
       <c r="V50" t="n">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61A0270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82914FD80&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6068,19 +6068,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL2180204</t>
+          <t>CHEMBL205599</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>416.41</v>
+        <v>568.6799999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>3.44</v>
+        <v>3.97</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>C=CC(=O)N1CCC[C@@H](n2nc(-c3cccc(C(F)(F)F)c3)c3c(N)ncnc32)C1</t>
+          <t>CC(=O)N1CCN(C(=O)c2cc(CSc3cnc(NC(=O)c4ccc(N(C)C)cc4)s3)cc([N+](=O)[O-])c2)CC1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6099,16 +6099,16 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>17744</v>
+        <v>13000</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>CHEMBL2185029</t>
+          <t>CHEMBL861556</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Covalent inhibition of ITK in presence of 1 mM ATP</t>
+          <t>Inhibition of Itk</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>CHEMBL2177048</t>
+          <t>CHEMBL1147005</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -6158,18 +6158,18 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Bioorg Med Chem Lett</t>
         </is>
       </c>
       <c r="V51" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61A3760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82914E810&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -6181,24 +6181,28 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CHEMBL205585</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>CHEMBL522709</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>GSK-317315A</t>
+        </is>
+      </c>
       <c r="C52" t="n">
-        <v>580.74</v>
+        <v>461.47</v>
       </c>
       <c r="D52" t="n">
-        <v>4.02</v>
+        <v>5.35</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1cc(CSc2cnc(NC(=O)c3ccc(N(C)C)cc3)s2)cc(C(=O)N2CCN(C(C)=O)CC2)c1</t>
+          <t>COc1ccc2ncn(-c3cc(O[C@H](C)c4ccccc4C(F)(F)F)c(C(N)=O)s3)c2c1</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Inhibition</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -6208,20 +6212,20 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>nM</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>14000</v>
+        <v>1.39</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>CHEMBL861556</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Inhibition of Itk</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -6236,7 +6240,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -6261,28 +6265,22 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>CHEMBL1147005</t>
+          <t>CHEMBL1961873</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem Lett</t>
-        </is>
-      </c>
-      <c r="V52" t="n">
-        <v>2006</v>
-      </c>
+          <t>GSK Published Kinase Inhibitor Set</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="n">
         <v>0</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61A1A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829147530&gt;</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -6294,23 +6292,23 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CHEMBL1909368</t>
+          <t>CHEMBL518953</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GW683134A</t>
+          <t>GSK-1023156A</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>575.91</v>
+        <v>428.31</v>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>4.53</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(Oc2ccc3[nH]c(NC(=O)c4ccco4)nc3c2)cc1)Nc1cc(C(F)(F)F)ccc1F</t>
+          <t>NC(=O)c1sc(-n2cnc3ccccc32)cc1OCc1ccccc1Br</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6329,16 +6327,16 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0.22</v>
+        <v>1.35</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -6393,7 +6391,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743E880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291475A0&gt;</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -6405,23 +6403,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CHEMBL1882194</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>GW780056X</t>
-        </is>
-      </c>
+          <t>CHEMBL185962</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>373.46</v>
+        <v>242.24</v>
       </c>
       <c r="D54" t="n">
-        <v>3.77</v>
+        <v>1.4</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CCN(CC)Cc1ccc(Nc2nccc(-c3cnn4ncccc34)n2)cc1</t>
+          <t>Nc1nonc1-c1nc2cnccc2n1C1CC1</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6440,7 +6434,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>-0.21</v>
+        <v>1.67</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -6504,7 +6498,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743DD20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146D50&gt;</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6516,19 +6510,23 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CHEMBL185962</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+          <t>CHEMBL272165</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>GW300657X</t>
+        </is>
+      </c>
       <c r="C55" t="n">
-        <v>242.24</v>
+        <v>450.48</v>
       </c>
       <c r="D55" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Nc1nonc1-c1nc2cnccc2n1C1CC1</t>
+          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(C(=O)NCc4ccncc4)cc32)cc1</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6547,16 +6545,16 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1.67</v>
+        <v>0.99</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -6611,7 +6609,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743E650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829147140&gt;</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6623,23 +6621,23 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CHEMBL480371</t>
+          <t>CHEMBL483748</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GW853609X</t>
+          <t>GSK-953913A</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>496.31</v>
+        <v>390.46</v>
       </c>
       <c r="D56" t="n">
-        <v>5.55</v>
+        <v>4.13</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NC(=O)c1sc(-n2cnc3cc(C(F)(F)F)ccc32)cc1OCc1ccccc1Br</t>
+          <t>NS(=O)(=O)c1ccc(-c2cc3ccncc3cc2OCc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6658,7 +6656,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1.42</v>
+        <v>0.35</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -6722,7 +6720,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743F220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291466C0&gt;</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -6734,23 +6732,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CHEMBL272165</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>GW300657X</t>
-        </is>
-      </c>
+          <t>CHEMBL274863</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>450.48</v>
+        <v>382.44</v>
       </c>
       <c r="D57" t="n">
-        <v>1.43</v>
+        <v>2.45</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(C(=O)NCc4ccncc4)cc32)cc1</t>
+          <t>Nc1nccc(-c2c(-c3ccc(F)cc3)ncn2CCCN2CCOCC2)n1</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6769,16 +6763,16 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0.99</v>
+        <v>2.18</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -6833,7 +6827,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743DD90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146B20&gt;</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -6845,19 +6839,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CHEMBL237571</t>
+          <t>CHEMBL365072</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>483.59</v>
+        <v>258.29</v>
       </c>
       <c r="D58" t="n">
-        <v>5.69</v>
+        <v>1.65</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>COc1ccc2cc(-c3c(-c4ccncc4)nc(-c4ccc(S(C)(=O)=O)cc4C)n3C)ccc2c1</t>
+          <t>CCc1nccc2c1nc(-c1nonc1N)n2CC</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6876,16 +6870,16 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1.82</v>
+        <v>1.25</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -6940,7 +6934,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743F5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829147290&gt;</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -6952,23 +6946,23 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CHEMBL483748</t>
+          <t>CHEMBL441702</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GSK-953913A</t>
+          <t>GSK-270822A</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>390.46</v>
+        <v>396.45</v>
       </c>
       <c r="D59" t="n">
-        <v>4.13</v>
+        <v>4.23</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1ccc(-c2cc3ccncc3cc2OCc2ccccc2)cc1</t>
+          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc3ccccc3c2)CC(=O)N1</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6987,7 +6981,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0.35</v>
+        <v>14.2</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -7051,7 +7045,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743E570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146730&gt;</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -7063,19 +7057,23 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CHEMBL347580</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>CHEMBL1909374</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>GW709042A</t>
+        </is>
+      </c>
       <c r="C60" t="n">
-        <v>320.35</v>
+        <v>585.95</v>
       </c>
       <c r="D60" t="n">
-        <v>2.13</v>
+        <v>7.41</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>COc1ccc(C2=C(N3CCc4ccccc43)C(=O)NC2=O)cc1</t>
+          <t>O=C(Nc1ccc(Oc2ccc3[nH]c(NC(=O)c4ccccc4)nc3c2)cc1)Nc1cc(C(F)(F)F)ccc1F</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7094,7 +7092,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1.76</v>
+        <v>1.11</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -7158,7 +7156,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743C970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829145B60&gt;</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -7170,23 +7168,23 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CHEMBL520037</t>
+          <t>CHEMBL476351</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GW837331X</t>
+          <t>GW775608X</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>459.43</v>
+        <v>470.57</v>
       </c>
       <c r="D61" t="n">
-        <v>4.89</v>
+        <v>4.29</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3c(C)nc(-c4cccc(C(F)(F)F)c4)n3n2)cc(OC)c1OC</t>
+          <t>Cc1ccc(NC(=O)c2ccnc(N3CCOCC3)c2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7205,7 +7203,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>13.5</v>
+        <v>0.93</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -7269,7 +7267,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743D070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829147060&gt;</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -7281,23 +7279,23 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CHEMBL441702</t>
+          <t>CHEMBL507329</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GSK-270822A</t>
+          <t>GW869810X</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>396.45</v>
+        <v>608.1</v>
       </c>
       <c r="D62" t="n">
-        <v>4.23</v>
+        <v>5.36</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc3ccccc3c2)CC(=O)N1</t>
+          <t>O=C(O[C@H]1CN[C@H](C#Cc2cc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3s2)C1)N1CCOCC1</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7316,16 +7314,16 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>14.2</v>
+        <v>0.99</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -7380,7 +7378,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743ED50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829147D10&gt;</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -7392,23 +7390,23 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CHEMBL507329</t>
+          <t>CHEMBL1794062</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GW869810X</t>
+          <t>GW577921A</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>608.1</v>
+        <v>302.76</v>
       </c>
       <c r="D63" t="n">
-        <v>5.36</v>
+        <v>4.09</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>O=C(O[C@H]1CN[C@H](C#Cc2cc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3s2)C1)N1CCOCC1</t>
+          <t>COc1ccccc1Nc1ncc(-c2ccccc2)o1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7427,7 +7425,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0.99</v>
+        <v>0.73</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -7491,7 +7489,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743DC40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829147DF0&gt;</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -7503,19 +7501,23 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CHEMBL1909379</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
+          <t>CHEMBL176553</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>GW631581B</t>
+        </is>
+      </c>
       <c r="C64" t="n">
-        <v>387.87</v>
+        <v>296.33</v>
       </c>
       <c r="D64" t="n">
-        <v>4.84</v>
+        <v>4.1</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>c1ccc(Cc2nc3ccc(Nc4ncnc5ccccc45)cc3[nH]2)cc1</t>
+          <t>COc1cc(Nc2ncc(-c3ccccc3)o2)cc(OC)c1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7534,7 +7536,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1.07</v>
+        <v>3.63</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -7598,7 +7600,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743D770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829145770&gt;</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -7610,23 +7612,23 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CHEMBL269985</t>
+          <t>CHEMBL514261</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GW701032X</t>
+          <t>GSK-1819799A</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>413.48</v>
+        <v>519.58</v>
       </c>
       <c r="D65" t="n">
-        <v>4.96</v>
+        <v>4.82</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>COc1ccc(CNC(=O)c2ccc(-c3cc(-c4nnc(C)o4)ccc3C)cc2)cc1</t>
+          <t>COc1cc(N2CCN(C(C)C)CC2)ccc1Nc1nc(Nc2cccc(F)c2C(=O)O)c2cc[nH]c2n1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7645,16 +7647,16 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2.25</v>
+        <v>5.92</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -7709,7 +7711,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743E110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291443C0&gt;</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -7721,23 +7723,23 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CHEMBL1794067</t>
+          <t>CHEMBL183993</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GSK-978744A</t>
+          <t>GW811761X</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>487.97</v>
+        <v>400.36</v>
       </c>
       <c r="D66" t="n">
-        <v>3.71</v>
+        <v>4.35</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OC[C@@H](O)CO)cc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>CCOc1ccc2c(-c3ccnc(Nc4cccc(C(F)(F)F)c4)n3)cnn2n1</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7756,16 +7758,16 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -7820,7 +7822,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743FAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829145310&gt;</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -7832,23 +7834,23 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CHEMBL220244</t>
+          <t>CHEMBL1789962</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GW427984X</t>
+          <t>GW643971X</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>296.37</v>
+        <v>374.4</v>
       </c>
       <c r="D67" t="n">
-        <v>3.28</v>
+        <v>3.03</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cc1cc(O)cc(C)c1/C=C/c1cncc(C(=O)N(C)C)c1</t>
+          <t>COc1cc(C=NNc2ncnc3c2cnn3Cc2ccccc2)ccc1O</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7867,16 +7869,16 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1.94</v>
+        <v>-1.61</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -7931,7 +7933,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743F840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144350&gt;</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -7943,23 +7945,23 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CHEMBL220465</t>
+          <t>CHEMBL1794065</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GSK-248233A</t>
+          <t>GSK-554170A</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>484.52</v>
+        <v>539.52</v>
       </c>
       <c r="D68" t="n">
-        <v>4.19</v>
+        <v>1.58</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cnc(Oc3cccc(NC(=O)c4ccc(N(C)C)cc4)c3)cc21</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7978,16 +7980,16 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.98</v>
+        <v>-1.96</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -8042,7 +8044,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743CBA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144D60&gt;</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -8054,23 +8056,23 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CHEMBL450071</t>
+          <t>CHEMBL467581</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GSK-1392956A</t>
+          <t>GSK-2219385A</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>592.6799999999999</v>
+        <v>520.5700000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>3.21</v>
+        <v>3.52</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCN(C(C)C)CC2)ccc1Nc1nc(Nc2ccc(F)cc2C(=O)NC[C@@H](O)CO)c2cc[nH]c2n1</t>
+          <t>COc1cc(C)c(N(C)C(=O)CN(C)C)cc1Nc1nc(Nc2cccc(F)c2C(N)=O)c2cc[nH]c2n1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -8089,7 +8091,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>-1.99</v>
+        <v>-2.44</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -8153,7 +8155,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743F0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144890&gt;</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -8165,23 +8167,19 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CHEMBL1909387</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>GW567808A</t>
-        </is>
-      </c>
+          <t>CHEMBL157258</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>633.09</v>
+        <v>383.62</v>
       </c>
       <c r="D70" t="n">
-        <v>6.37</v>
+        <v>3.83</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)CCNCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5cccc(C(F)(F)F)c5)cc4)c3c2)o1</t>
+          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -8200,16 +8198,16 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1.4</v>
+        <v>0.77</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -8264,7 +8262,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743D8C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146F10&gt;</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -8276,23 +8274,23 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CHEMBL467581</t>
+          <t>CHEMBL273564</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GSK-2219385A</t>
+          <t>GW795493X</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>520.5700000000001</v>
+        <v>413.36</v>
       </c>
       <c r="D71" t="n">
-        <v>3.52</v>
+        <v>5.13</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>COc1cc(C)c(N(C)C(=O)CN(C)C)cc1Nc1nc(Nc2cccc(F)c2C(N)=O)c2cc[nH]c2n1</t>
+          <t>Nc1ncnc2occ(-c3ccc(NC(=O)Nc4cccc(C(F)(F)F)c4)cc3)c12</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -8311,7 +8309,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>-2.44</v>
+        <v>0.99</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -8375,7 +8373,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743DA80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829145CB0&gt;</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -8387,19 +8385,23 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CHEMBL157258</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
+          <t>CHEMBL514938</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>GSK-969786A</t>
+        </is>
+      </c>
       <c r="C72" t="n">
-        <v>383.62</v>
+        <v>451.91</v>
       </c>
       <c r="D72" t="n">
-        <v>3.83</v>
+        <v>7.07</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
+          <t>Fc1cccc(COc2ccc(Nc3ncnc4sc(-c5ccco5)cc34)cc2Cl)c1</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -8418,16 +8420,16 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0.77</v>
+        <v>3.14</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -8482,7 +8484,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743C740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291468F0&gt;</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
@@ -8494,23 +8496,23 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CHEMBL1909382</t>
+          <t>CHEMBL463931</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GW759710A</t>
+          <t>GSK-2163632A</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>359.79</v>
+        <v>548.67</v>
       </c>
       <c r="D73" t="n">
-        <v>3.2</v>
+        <v>4.19</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>NC(=O)c1cccc(Nc2nccc(Nc3cccc(F)c3)n2)c1</t>
+          <t>COc1cc2c(cc1Nc1nc(Nc3ccsc3C(N)=O)c3cc[nH]c3n1)N(C(=O)CN(C)C)CCC2(C)C</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -8529,7 +8531,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>-0.24</v>
+        <v>1.74</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -8593,7 +8595,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743CCF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829113ED0&gt;</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
@@ -8605,23 +8607,23 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CHEMBL273564</t>
+          <t>CHEMBL272414</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GW795493X</t>
+          <t>GW416469X</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>413.36</v>
+        <v>358.42</v>
       </c>
       <c r="D74" t="n">
-        <v>5.13</v>
+        <v>1.81</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Nc1ncnc2occ(-c3ccc(NC(=O)Nc4cccc(C(F)(F)F)c4)cc3)c12</t>
+          <t>CN(C)c1ccc2c(c1)/C(=C/Nc1ccc(S(N)(=O)=O)cc1)C(=O)N2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8640,16 +8642,16 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0.99</v>
+        <v>3.68</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -8704,7 +8706,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743EB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829113C30&gt;</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -8716,23 +8718,23 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CHEMBL514938</t>
+          <t>CHEMBL1909391</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GSK-969786A</t>
+          <t>GW576924A</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>451.91</v>
+        <v>579.1</v>
       </c>
       <c r="D75" t="n">
-        <v>7.07</v>
+        <v>5.92</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Fc1cccc(COc2ccc(Nc3ncnc4sc(-c5ccco5)cc34)cc2Cl)c1</t>
+          <t>[O-][S+]1CCN(Cc2ccc(-c3ccc4ncnc(Nc5ccc(OCc6ccccc6)c(F)c5)c4c3)o2)CC1</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8751,16 +8753,16 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3.14</v>
+        <v>1.08</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -8815,7 +8817,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743D310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829113D10&gt;</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -8827,23 +8829,23 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CHEMBL318728</t>
+          <t>CHEMBL270054</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GW549390X</t>
+          <t>GW280670X</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>236.27</v>
+        <v>350.79</v>
       </c>
       <c r="D76" t="n">
-        <v>4.09</v>
+        <v>1.76</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>c1ccc(Nc2ncc(-c3ccccc3)o2)cc1</t>
+          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(Cl)cc32)cc1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8862,16 +8864,16 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0.38</v>
+        <v>4.1</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -8926,7 +8928,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743EFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829113BC0&gt;</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -8938,23 +8940,19 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CHEMBL463931</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>GSK-2163632A</t>
-        </is>
-      </c>
+          <t>CHEMBL1909345</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>548.67</v>
+        <v>422.87</v>
       </c>
       <c r="D77" t="n">
-        <v>4.19</v>
+        <v>2.97</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1Nc1nc(Nc3ccsc3C(N)=O)c3cc[nH]c3n1)N(C(=O)CN(C)C)CCC2(C)C</t>
+          <t>CCN1CCC(C(=O)Nc2n[nH]c3nnc(-c4cccc(F)c4F)cc23)CC1</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8973,16 +8971,16 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1.74</v>
+        <v>0.88</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -9037,7 +9035,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743E8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829113D80&gt;</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -9049,23 +9047,23 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CHEMBL1909364</t>
+          <t>CHEMBL1096634</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GW589961A</t>
+          <t>GSK-943949A</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>488.33</v>
+        <v>447.5</v>
       </c>
       <c r="D78" t="n">
-        <v>5.83</v>
+        <v>2.28</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>COC(=O)Nc1nc2ccc(Oc3ccc(NC(=O)Nc4cccc(Cl)c4)cc3)cc2[nH]1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -9084,7 +9082,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.42</v>
+        <v>1.49</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -9148,7 +9146,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743F760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139D20&gt;</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -9160,19 +9158,23 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CHEMBL405021</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
+          <t>CHEMBL186213</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>GW827105X</t>
+        </is>
+      </c>
       <c r="C79" t="n">
-        <v>277.33</v>
+        <v>462.44</v>
       </c>
       <c r="D79" t="n">
-        <v>3.58</v>
+        <v>5.62</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>O=C(Nc1n[nH]c2cc(-c3ccccc3)ccc12)C1CC1</t>
+          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3cccc(C(F)(F)F)c3)n2)cc1</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -9191,7 +9193,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2.12</v>
+        <v>1.39</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -9255,7 +9257,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743F1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138510&gt;</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -9267,23 +9269,19 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CHEMBL1794060</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>GW575533A</t>
-        </is>
-      </c>
+          <t>CHEMBL1909347</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>332.79</v>
+        <v>546.38</v>
       </c>
       <c r="D80" t="n">
-        <v>4.1</v>
+        <v>3.37</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>COc1ccc(Nc2ncc(-c3ccccc3)o2)cc1OC</t>
+          <t>CN1CCC(C(=O)Nc2n[nH]c3nc(-c4ccc(O)cc4)c(Br)cc23)CC1</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -9302,16 +9300,16 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3.7</v>
+        <v>0.57</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -9366,7 +9364,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743F370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139C40&gt;</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -9378,23 +9376,23 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CHEMBL1909391</t>
+          <t>CHEMBL361237</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GW576924A</t>
+          <t>GW785804X</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>579.1</v>
+        <v>322.37</v>
       </c>
       <c r="D81" t="n">
-        <v>5.92</v>
+        <v>4.14</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[O-][S+]1CCN(Cc2ccc(-c3ccc4ncnc(Nc5ccc(OCc6ccccc6)c(F)c5)c4c3)o2)CC1</t>
+          <t>Nc1nc(-c2ccc(F)cc2)c(-c2ccc3ncccc3n2)s1</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -9413,7 +9411,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1.08</v>
+        <v>2.58</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -9477,7 +9475,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743FD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A960&gt;</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -9489,23 +9487,19 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CHEMBL270054</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>GW280670X</t>
-        </is>
-      </c>
+          <t>CHEMBL1230790</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>350.79</v>
+        <v>269.31</v>
       </c>
       <c r="D82" t="n">
-        <v>1.76</v>
+        <v>2.36</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(Cl)cc32)cc1</t>
+          <t>CC(C)n1nc(-c2cccc(O)c2)c2c(N)ncnc21</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -9524,16 +9518,16 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>4.1</v>
+        <v>10</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1244454</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>Inhibition of ITK at 1 uM after 60 mins by FRET assay in presence of 10 uM ATP</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -9573,22 +9567,28 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>CHEMBL1961873</t>
+          <t>CHEMBL1240340</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Nat Chem Biol</t>
+        </is>
+      </c>
+      <c r="V82" t="n">
+        <v>2008</v>
+      </c>
       <c r="W82" t="n">
         <v>0</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743E1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291385F0&gt;</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
@@ -9600,23 +9600,23 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CHEMBL188426</t>
+          <t>CHEMBL263796</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GW807982X</t>
+          <t>GW445014X</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>430.39</v>
+        <v>307.18</v>
       </c>
       <c r="D83" t="n">
-        <v>4.36</v>
+        <v>3.92</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CCOc1ccc2c(-c3ccnc(Nc4cc(OC)cc(C(F)(F)F)c4)n3)cnn2n1</t>
+          <t>CNC(=O)c1cncc(/C=C/c2c(Cl)cccc2Cl)c1</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -9635,7 +9635,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0.24</v>
+        <v>-1.98</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743E730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139000&gt;</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
@@ -9711,19 +9711,23 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CHEMBL1909345</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
+          <t>CHEMBL514162</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>GW852849X</t>
+        </is>
+      </c>
       <c r="C84" t="n">
-        <v>422.87</v>
+        <v>443.91</v>
       </c>
       <c r="D84" t="n">
-        <v>2.97</v>
+        <v>4.44</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CCN1CCC(C(=O)Nc2n[nH]c3nnc(-c4cccc(F)c4F)cc23)CC1</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -9742,7 +9746,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0.88</v>
+        <v>3.19</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -9806,7 +9810,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743D7E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139310&gt;</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -9818,23 +9822,23 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CHEMBL1096634</t>
+          <t>CHEMBL1909359</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GSK-943949A</t>
+          <t>GW771127A</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>447.5</v>
+        <v>459.96</v>
       </c>
       <c r="D85" t="n">
-        <v>2.28</v>
+        <v>2.83</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
+          <t>Cc1c2ccc(N(C)c3ccnc(Nc4cccc(S(N)(=O)=O)c4)n3)cc2nn1C</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -9853,16 +9857,16 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1.49</v>
+        <v>-1.73</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -9917,7 +9921,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743F7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B990&gt;</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -9929,23 +9933,23 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CHEMBL186213</t>
+          <t>CHEMBL477069</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GW827105X</t>
+          <t>GSK-1173862A</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>462.44</v>
+        <v>517.61</v>
       </c>
       <c r="D86" t="n">
-        <v>5.62</v>
+        <v>5.28</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3cccc(C(F)(F)F)c3)n2)cc1</t>
+          <t>CCCN1CCCC(c2ccc(Nc3nc(Nc4cc(F)ccc4C(N)=O)c4cc[nH]c4n3)c(OC)c2)C1</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -9964,7 +9968,7 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1.39</v>
+        <v>6</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -10028,7 +10032,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743F3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B370&gt;</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -10040,19 +10044,23 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CHEMBL1909347</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
+          <t>CHEMBL103104</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>GW831090X</t>
+        </is>
+      </c>
       <c r="C87" t="n">
-        <v>546.38</v>
+        <v>330.37</v>
       </c>
       <c r="D87" t="n">
-        <v>3.37</v>
+        <v>2.17</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CN1CCC(C(=O)Nc2n[nH]c3nc(-c4ccc(O)cc4)c(Br)cc23)CC1</t>
+          <t>NS(=O)(=O)c1ccc(Nc2cc(-c3cccc(O)c3)n[nH]2)cc1</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -10071,7 +10079,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0.57</v>
+        <v>2.78</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -10135,7 +10143,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743CDD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913AB90&gt;</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -10147,23 +10155,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CHEMBL263796</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>GW445014X</t>
-        </is>
-      </c>
+          <t>CHEMBL156987</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>307.18</v>
+        <v>377.18</v>
       </c>
       <c r="D88" t="n">
-        <v>3.92</v>
+        <v>3.17</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CNC(=O)c1cncc(/C=C/c2c(Cl)cccc2Cl)c1</t>
+          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(Cl)c(C(=O)O)c1</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -10182,16 +10186,16 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>-1.98</v>
+        <v>0.9</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -10246,7 +10250,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743F300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139690&gt;</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -10258,23 +10262,19 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CHEMBL514162</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>GW852849X</t>
-        </is>
-      </c>
+          <t>CHEMBL1909343</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>443.91</v>
+        <v>394.31</v>
       </c>
       <c r="D89" t="n">
-        <v>4.44</v>
+        <v>1.76</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
+          <t>O=C(Nc1n[nH]c2nnc(-c3cccnc3)cc12)C1CC1</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>3.19</v>
+        <v>0.11</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743CC10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B840&gt;</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -10369,23 +10369,23 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CHEMBL1909359</t>
+          <t>CHEMBL1794055</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GW771127A</t>
+          <t>GW589933X</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>459.96</v>
+        <v>372.43</v>
       </c>
       <c r="D90" t="n">
-        <v>2.83</v>
+        <v>2.35</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Cc1c2ccc(N(C)c3ccnc(Nc4cccc(S(N)(=O)=O)c4)n3)cc2nn1C</t>
+          <t>NS(=O)(=O)c1ccc(NC=C2C(=O)Nc3ccc4ncsc4c32)cc1</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -10404,7 +10404,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>-1.73</v>
+        <v>2.7</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743D700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138D60&gt;</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -10480,23 +10480,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CHEMBL477069</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>GSK-1173862A</t>
-        </is>
-      </c>
+          <t>CHEMBL3758502</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>517.61</v>
+        <v>347.38</v>
       </c>
       <c r="D91" t="n">
-        <v>5.28</v>
+        <v>3.25</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CCCN1CCCC(c2ccc(Nc3nc(Nc4cc(F)ccc4C(N)=O)c4cc[nH]c4n3)c(OC)c2)C1</t>
+          <t>CC1(C)OCc2c(Nc3n[nH]c4ccccc34)nc(-c3cn[nH]c3)nc21</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -10515,16 +10511,16 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL3762893</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>Inhibition of ITK (unknown origin) at 100 nM</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -10539,7 +10535,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -10564,22 +10560,28 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>CHEMBL1961873</t>
+          <t>CHEMBL3758169</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>Bioorg Med Chem Lett</t>
+        </is>
+      </c>
+      <c r="V91" t="n">
+        <v>2016</v>
+      </c>
       <c r="W91" t="n">
         <v>0</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C619A960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138430&gt;</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -10591,19 +10593,23 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CHEMBL156987</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
+          <t>CHEMBL230911</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>GSK-625137A</t>
+        </is>
+      </c>
       <c r="C92" t="n">
-        <v>377.18</v>
+        <v>289.34</v>
       </c>
       <c r="D92" t="n">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(Cl)c(C(=O)O)c1</t>
+          <t>NC(=O)c1cc(-c2ccncc2)cc(-c2ccccc2)c1N</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -10622,7 +10628,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0.9</v>
+        <v>1.74</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -10686,7 +10692,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C619A880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A6C0&gt;</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -10698,23 +10704,23 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CHEMBL202891</t>
+          <t>CHEMBL218969</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GW679410X</t>
+          <t>GW445015X</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>328.38</v>
+        <v>252.32</v>
       </c>
       <c r="D93" t="n">
-        <v>4.21</v>
+        <v>2.92</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
+          <t>CNC(=O)c1cncc(/C=C/c2ccccc2C)c1</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -10733,7 +10739,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2.05</v>
+        <v>2.59</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -10797,7 +10803,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B65E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B220&gt;</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -10809,19 +10815,23 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CHEMBL95207</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
+          <t>CHEMBL473420</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>GSK-1030058A</t>
+        </is>
+      </c>
       <c r="C94" t="n">
-        <v>352.42</v>
+        <v>492.48</v>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>5.49</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CN1CCC(n2cnc(-c3ccc(F)cc3)c2-c2ccnc(N)n2)CC1</t>
+          <t>COC(=O)c1sc(-n2cnc3cc(OC)c(OC)cc32)cc1OCc1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -10840,16 +10850,16 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -10904,7 +10914,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B46D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291391C0&gt;</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -10916,23 +10926,23 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CHEMBL1909371</t>
+          <t>CHEMBL1909370</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GW694590A</t>
+          <t>GW694234A</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>453.89</v>
+        <v>532.78</v>
       </c>
       <c r="D95" t="n">
-        <v>5.18</v>
+        <v>5.94</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>COC(=O)Nc1nc2cc(Oc3ccc(NC(=O)Nc4ccccc4)cc3)ccc2[nH]1</t>
+          <t>COC(=O)Nc1nc2cc(Oc3ccc(NC(=O)Nc4cccc(Br)c4)cc3)ccc2[nH]1</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -10951,16 +10961,16 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -11015,7 +11025,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B52A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139540&gt;</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -11027,23 +11037,19 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CHEMBL1909361</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>GW830365A</t>
-        </is>
-      </c>
+          <t>CHEMBL102936</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>576.12</v>
+        <v>370.43</v>
       </c>
       <c r="D96" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CN(c1ccc(NC(=O)NCCN2CCOCC2)cc1)c1ccnc(Nc2ccc(CS(C)(=O)=O)cc2)n1</t>
+          <t>CS(=O)(=O)Nc1ccc(-c2ccc3c(NC(=O)C4CC4)n[nH]c3c2)cc1</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -11062,16 +11068,16 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>9.06</v>
+        <v>1.56</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -11126,7 +11132,7 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138970&gt;</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -11138,19 +11144,19 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CHEMBL1909384</t>
+          <t>CHEMBL237570</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>378.82</v>
+        <v>467.59</v>
       </c>
       <c r="D97" t="n">
-        <v>0.26</v>
+        <v>6.02</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)N3CC[C@H](N)C3)c21</t>
+          <t>COc1ccc2cc(-c3c(-c4ccncc4)nc(-c4ccc([S+](C)[O-])cc4C)n3C)ccc2c1</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -11169,16 +11175,16 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1.18</v>
+        <v>0.02</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -11233,7 +11239,7 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B61F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913ADC0&gt;</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -11344,7 +11350,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6CE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139E00&gt;</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -11356,23 +11362,23 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CHEMBL477583</t>
+          <t>CHEMBL426800</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>GW743024X</t>
+          <t>GW785404X</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>374.44</v>
+        <v>247.23</v>
       </c>
       <c r="D99" t="n">
-        <v>4.65</v>
+        <v>1.83</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)c2ccoc2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
+          <t>CCn1c(-c2nonc2N)nc2ccc(F)cc21</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -11391,16 +11397,16 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -11455,7 +11461,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291389E0&gt;</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -11467,23 +11473,23 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CHEMBL189415</t>
+          <t>CHEMBL65884</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>GW819077X</t>
+          <t>GW817396X</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>432.41</v>
+        <v>362.37</v>
       </c>
       <c r="D100" t="n">
-        <v>5.62</v>
+        <v>3.41</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FC(F)(F)c1cccc(Nc2nccc(-c3cnn4nc(-c5ccccc5)ccc34)n2)c1</t>
+          <t>COc1cccc(-n2ncc3c(N/N=C/c4ccc(F)cc4)ncnc32)c1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -11502,16 +11508,16 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>-0.41</v>
+        <v>2.7</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -11566,7 +11572,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913AFF0&gt;</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -11578,19 +11584,23 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CHEMBL275798</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
+          <t>CHEMBL234838</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>GW572738X</t>
+        </is>
+      </c>
       <c r="C101" t="n">
-        <v>415.47</v>
+        <v>300.36</v>
       </c>
       <c r="D101" t="n">
-        <v>4.86</v>
+        <v>3.89</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccccc3)n2)cc1</t>
+          <t>N#Cc1c(NC(=O)c2ccccc2F)sc2c1CCCC2</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -11609,16 +11619,16 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>-3.91</v>
+        <v>0.32</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -11673,7 +11683,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138EB0&gt;</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -11685,23 +11695,19 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CHEMBL1909405</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>GW618013A</t>
-        </is>
-      </c>
+          <t>CHEMBL266707</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>554.5700000000001</v>
+        <v>297.36</v>
       </c>
       <c r="D102" t="n">
-        <v>4.98</v>
+        <v>3.86</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>CN(C)CCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
+          <t>Fc1ccc(-c2c(-c3ccncc3)nc3n2CCS3)cc1</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -11720,7 +11726,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>-2.44</v>
+        <v>-2.9</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -11784,7 +11790,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B68F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B610&gt;</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
@@ -11796,23 +11802,19 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CHEMBL65884</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>GW817396X</t>
-        </is>
-      </c>
+          <t>CHEMBL3735890</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>362.37</v>
+        <v>405.46</v>
       </c>
       <c r="D103" t="n">
-        <v>3.41</v>
+        <v>2.55</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>COc1cccc(-n2ncc3c(N/N=C/c4ccc(F)cc4)ncnc32)c1</t>
+          <t>COc1ccc2c(c1C(C)N1CCNCC1)O/C(=C\c1n[nH]c3ncccc13)C2=O</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -11831,16 +11833,16 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL3738406</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>Inhibition of ITK (unknown origin) at 200 nM by electrophoretic mobility shift assay</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -11855,7 +11857,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -11880,22 +11882,28 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>CHEMBL1961873</t>
+          <t>CHEMBL3734671</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>Bioorg Med Chem Lett</t>
+        </is>
+      </c>
+      <c r="V103" t="n">
+        <v>2015</v>
+      </c>
       <c r="W103" t="n">
         <v>0</v>
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291397E0&gt;</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -11907,23 +11915,23 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CHEMBL365297</t>
+          <t>CHEMBL275473</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GW827099X</t>
+          <t>GW572401X</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>440.44</v>
+        <v>401.49</v>
       </c>
       <c r="D104" t="n">
-        <v>4.51</v>
+        <v>4.12</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc4c(c3)OCCO4)n2)cc1</t>
+          <t>CCN(CC)S(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3ccccc3)o2)c1</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -11942,7 +11950,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0.31</v>
+        <v>2.62</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -12006,7 +12014,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B1B0&gt;</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -12018,19 +12026,23 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CHEMBL1909378</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
+          <t>CHEMBL207247</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>GW807930X</t>
+        </is>
+      </c>
       <c r="C105" t="n">
-        <v>420.86</v>
+        <v>500.96</v>
       </c>
       <c r="D105" t="n">
-        <v>3.63</v>
+        <v>5.63</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccc(-c2nc(-c3ccccn3)c(-c3ccc4c(c3)OCO4)[nH]2)cc1</t>
+          <t>CC(=O)NCc1cccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)c1</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -12049,7 +12061,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1.43</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -12113,7 +12125,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B62D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A0A0&gt;</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -12125,19 +12137,23 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CHEMBL399410</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
+          <t>CHEMBL1909365</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>GW607049C</t>
+        </is>
+      </c>
       <c r="C106" t="n">
-        <v>453.57</v>
+        <v>617.5599999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>5.72</v>
+        <v>6.69</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>COc1ccc2cc(-c3c(-c4ccncc4)nc(-c4ccc([S+](C)[O-])cc4)n3C)ccc2c1</t>
+          <t>COC(=O)Nc1nc2ccc(Sc3ccc(NC(=O)Nc4cc(C(F)(F)F)ccc4F)cc3)cc2[nH]1</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -12156,7 +12172,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3.22</v>
+        <v>0.87</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -12220,7 +12236,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B66C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913ACE0&gt;</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -12232,23 +12248,23 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CHEMBL1909367</t>
+          <t>CHEMBL517666</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>GW680908A</t>
+          <t>GW796921X</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>587.9400000000001</v>
+        <v>336.44</v>
       </c>
       <c r="D107" t="n">
-        <v>5.38</v>
+        <v>4.15</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>COC(=O)Nc1nc2ccc(S(=O)(=O)c3ccc(NC(=O)Nc4cc(C(F)(F)F)ccc4F)cc3)cc2[nH]1</t>
+          <t>CCC(=O)Nc1ccc(C)c(-c2ccc(C(=O)NCC3CC3)cc2)c1</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -12267,16 +12283,16 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1.08</v>
+        <v>-0.1</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -12331,7 +12347,7 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A500&gt;</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
@@ -12343,19 +12359,23 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CHEMBL266707</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
+          <t>CHEMBL1909351</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>GW824645A</t>
+        </is>
+      </c>
       <c r="C108" t="n">
-        <v>297.36</v>
+        <v>368.82</v>
       </c>
       <c r="D108" t="n">
-        <v>3.86</v>
+        <v>2.61</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2c(-c3ccncc3)nc3n2CCS3)cc1</t>
+          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -12374,16 +12394,16 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>-2.9</v>
+        <v>6.64</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -12438,7 +12458,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291382E0&gt;</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
@@ -12450,23 +12470,23 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CHEMBL1909404</t>
+          <t>CHEMBL212250</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>GW581744X</t>
+          <t>GW615311X</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>406.42</v>
+        <v>644.12</v>
       </c>
       <c r="D109" t="n">
-        <v>2.49</v>
+        <v>8</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccc2c(-c3ccnc(NCCCO)n3)c(-c3ccc(F)cc3)nn2c1</t>
+          <t>O=S(=O)(CCOCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3c2)o1)c1ccccc1</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -12485,7 +12505,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>1.77</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -12549,7 +12569,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139A10&gt;</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
@@ -12561,23 +12581,23 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CHEMBL517507</t>
+          <t>CHEMBL427058</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GW782912X</t>
+          <t>GSK-466317A</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>362.47</v>
+        <v>448.83</v>
       </c>
       <c r="D110" t="n">
-        <v>4.08</v>
+        <v>4.75</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)NC2CCC2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
+          <t>CC1=C(C(=O)Nc2cc(Cl)c3[nH]ncc3c2)C(c2ccc(C(F)(F)F)cc2)CC(=O)N1</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -12596,7 +12616,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1.48</v>
+        <v>2.35</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -12660,7 +12680,7 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291392A0&gt;</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
@@ -12672,23 +12692,23 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CHEMBL471789</t>
+          <t>CHEMBL1909398</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GSK-1030059A</t>
+          <t>GW282536X</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>476.48</v>
+        <v>330.37</v>
       </c>
       <c r="D111" t="n">
-        <v>5.9</v>
+        <v>1.41</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccccc4C(F)(F)F)c(C(C)=O)s3)c2cc1OC</t>
+          <t>Cc1cccc2c1NC(=O)/C2=N\Nc1ccc(S(N)(=O)=O)cc1</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -12707,7 +12727,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0.57</v>
+        <v>1.75</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -12771,7 +12791,7 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138190&gt;</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
@@ -12783,23 +12803,19 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CHEMBL207410</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>GW772405X</t>
-        </is>
-      </c>
+          <t>CHEMBL418348</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>486.93</v>
+        <v>493.56</v>
       </c>
       <c r="D112" t="n">
-        <v>5.35</v>
+        <v>4.27</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CNC(=O)c1cccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)c1</t>
+          <t>CS(=O)(=O)c1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -12818,7 +12834,7 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>-0.18</v>
+        <v>-0.93</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -12882,7 +12898,7 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138E40&gt;</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
@@ -12894,23 +12910,23 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CHEMBL1895450</t>
+          <t>CHEMBL179465</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GSK-2220400A</t>
+          <t>GW621970X</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>529.61</v>
+        <v>376.41</v>
       </c>
       <c r="D113" t="n">
-        <v>3.05</v>
+        <v>4.03</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CNC(=O)c1ncccc1Nc1nc(Nc2cc3c(cc2OC)CCCN3C(=O)CN(C)C)nc2[nH]ccc12</t>
+          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(F)c3)o2)c1</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -12929,7 +12945,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -12993,7 +13009,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B71B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138C80&gt;</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
@@ -13005,23 +13021,19 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CHEMBL191705</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>GW621431X</t>
-        </is>
-      </c>
+          <t>CHEMBL4850154</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>400.46</v>
+        <v>491.47</v>
       </c>
       <c r="D114" t="n">
-        <v>4.09</v>
+        <v>4.92</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(C(C)=O)c3)o2)c1</t>
+          <t>Cc1ccc(C(=O)Nc2ccc(OC(F)(F)F)cc2)cc1C#Cc1cc(-c2cnn(C)c2)cnc1N</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -13040,16 +13052,16 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>2.71</v>
+        <v>-23</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL4839561</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>Inhibition of human recombinant ITK (352 to 617) at 50 nM by radiometric scintillation counting analysis relative to control</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -13064,7 +13076,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -13089,22 +13101,28 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>CHEMBL1961873</t>
+          <t>CHEMBL4837249</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>J Med Chem</t>
+        </is>
+      </c>
+      <c r="V114" t="n">
+        <v>2021</v>
+      </c>
       <c r="W114" t="n">
         <v>0</v>
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139150&gt;</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
@@ -13116,23 +13134,19 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CHEMBL212250</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>GW615311X</t>
-        </is>
-      </c>
+          <t>CHEMBL185710</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>644.12</v>
+        <v>230.23</v>
       </c>
       <c r="D115" t="n">
-        <v>8</v>
+        <v>1.08</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>O=S(=O)(CCOCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3c2)o1)c1ccccc1</t>
+          <t>CCn1c(-c2nonc2N)nc2ccncc21</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -13151,7 +13165,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -13215,7 +13229,7 @@
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829138B30&gt;</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
@@ -13227,23 +13241,23 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CHEMBL1909375</t>
+          <t>CHEMBL529066</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>GSK-614526A</t>
+          <t>GW574783B</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>525.49</v>
+        <v>599.54</v>
       </c>
       <c r="D116" t="n">
-        <v>1.34</v>
+        <v>6</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC[C@@H]3CCCN3)c21</t>
+          <t>CS(=O)(=O)CCNCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)c(Cl)c4)c3c2)o1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -13262,7 +13276,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>-1.58</v>
+        <v>-0.01</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -13326,7 +13340,7 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A1F0&gt;</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
@@ -13338,19 +13352,23 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CHEMBL4850154</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr"/>
+          <t>CHEMBL1794070</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>GSK-579289A</t>
+        </is>
+      </c>
       <c r="C117" t="n">
-        <v>491.47</v>
+        <v>511.05</v>
       </c>
       <c r="D117" t="n">
-        <v>4.92</v>
+        <v>5.45</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)Nc2ccc(OC(F)(F)F)cc2)cc1C#Cc1cc(-c2cnn(C)c2)cnc1N</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -13369,16 +13387,16 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>-23</v>
+        <v>-1.75</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>CHEMBL4839561</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Inhibition of human recombinant ITK (352 to 617) at 50 nM by radiometric scintillation counting analysis relative to control</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -13393,7 +13411,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -13418,28 +13436,22 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>CHEMBL4837249</t>
+          <t>CHEMBL1961873</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
-      <c r="V117" t="n">
-        <v>2021</v>
-      </c>
+          <t>GSK Published Kinase Inhibitor Set</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
       <c r="W117" t="n">
         <v>0</v>
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139700&gt;</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
@@ -13451,23 +13463,23 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CHEMBL67241</t>
+          <t>CHEMBL1909386</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>GW794607X</t>
+          <t>GW566221A</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>372.44</v>
+        <v>565.1</v>
       </c>
       <c r="D118" t="n">
-        <v>3.48</v>
+        <v>5.35</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>CCCNc1cccc(-n2ncc3c(N/N=C/c4ccncc4)ncnc32)c1</t>
+          <t>CS(=O)(=O)CCNCc1coc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)cc4)c3c2)c1</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -13486,7 +13498,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>10.77</v>
+        <v>1.57</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -13550,7 +13562,7 @@
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B530&gt;</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
@@ -13562,23 +13574,23 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CHEMBL529066</t>
+          <t>CHEMBL243907</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GW574783B</t>
+          <t>GW673715X</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>599.54</v>
+        <v>445.48</v>
       </c>
       <c r="D119" t="n">
-        <v>6</v>
+        <v>5.74</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)CCNCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)c(Cl)c4)c3c2)o1</t>
+          <t>CCc1cccc(NC(=O)Nc2ccc(Oc3ccc4nc(NC(=O)OC)[nH]c4c3)cc2)c1</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -13597,7 +13609,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>-0.01</v>
+        <v>0.3</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -13661,121 +13673,10 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A880&gt;</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>CHEMBL1909386</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>GW566221A</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>565.1</v>
-      </c>
-      <c r="D120" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)CCNCc1coc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)cc4)c3c2)c1</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>CHEMBL1962115</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>BAO_0000357</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>CHEMBL2959</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>Tyrosine-protein kinase ITK/TSK</t>
-        </is>
-      </c>
-      <c r="Q120" t="inlineStr">
-        <is>
-          <t>Homo sapiens</t>
-        </is>
-      </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>SINGLE PROTEIN</t>
-        </is>
-      </c>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>CHEMBL1961873</t>
-        </is>
-      </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="n">
-        <v>0</v>
-      </c>
-      <c r="X120" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6F80&gt;</t>
-        </is>
-      </c>
-      <c r="Y120" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
